--- a/Auswertung.xlsx
+++ b/Auswertung.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="60" windowWidth="28515" windowHeight="13605" activeTab="1"/>
   </bookViews>
